--- a/exports/Sunmax_Customers_20250512.xlsx
+++ b/exports/Sunmax_Customers_20250512.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>CUST005</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>12-05-2025</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Shaik SocialHub hidaythulla</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>07702299692</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>damaramadugu,buchi reddy palem,nellore, andhra pra</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>inventor thijhkjkjbsjhdvfjasvbvdfhcH</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Fully Paid</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
